--- a/XLSX/housing_year.xlsx
+++ b/XLSX/housing_year.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,9 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -451,10 +457,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>29221</v>
       </c>
       <c r="B2" t="n">
         <v>48448.44</v>
@@ -464,10 +468,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>1981</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>29587</v>
       </c>
       <c r="B3" t="n">
         <v>50607.84</v>
@@ -477,10 +479,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>1982</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>29952</v>
       </c>
       <c r="B4" t="n">
         <v>51173.06</v>
@@ -490,10 +490,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>1983</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>30317</v>
       </c>
       <c r="B5" t="n">
         <v>54867.64</v>
@@ -503,10 +501,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>1984</t>
-        </is>
+      <c r="A6" s="2" t="n">
+        <v>30682</v>
       </c>
       <c r="B6" t="n">
         <v>57323.22</v>
@@ -516,10 +512,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
+      <c r="A7" s="2" t="n">
+        <v>31048</v>
       </c>
       <c r="B7" t="n">
         <v>60251.98</v>
@@ -529,10 +523,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>1986</t>
-        </is>
+      <c r="A8" s="2" t="n">
+        <v>31413</v>
       </c>
       <c r="B8" t="n">
         <v>64365.46</v>
@@ -542,10 +534,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>1987</t>
-        </is>
+      <c r="A9" s="2" t="n">
+        <v>31778</v>
       </c>
       <c r="B9" t="n">
         <v>68533.22</v>
@@ -555,10 +545,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
+      <c r="A10" s="2" t="n">
+        <v>32143</v>
       </c>
       <c r="B10" t="n">
         <v>72208.92</v>
@@ -568,10 +556,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>1989</t>
-        </is>
+      <c r="A11" s="2" t="n">
+        <v>32509</v>
       </c>
       <c r="B11" t="n">
         <v>76019.14</v>
@@ -581,10 +567,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
+      <c r="A12" s="2" t="n">
+        <v>32874</v>
       </c>
       <c r="B12" t="n">
         <v>78405.10000000001</v>
@@ -594,10 +578,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
+      <c r="A13" s="2" t="n">
+        <v>33239</v>
       </c>
       <c r="B13" t="n">
         <v>79898.98</v>
@@ -607,10 +589,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>1992</t>
-        </is>
+      <c r="A14" s="2" t="n">
+        <v>33604</v>
       </c>
       <c r="B14" t="n">
         <v>82125.64</v>
@@ -620,10 +600,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>1993</t>
-        </is>
+      <c r="A15" s="2" t="n">
+        <v>33970</v>
       </c>
       <c r="B15" t="n">
         <v>84041.96000000001</v>
@@ -633,10 +611,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
+      <c r="A16" s="2" t="n">
+        <v>34335</v>
       </c>
       <c r="B16" t="n">
         <v>86171.86</v>
@@ -646,10 +622,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
+      <c r="A17" s="2" t="n">
+        <v>34700</v>
       </c>
       <c r="B17" t="n">
         <v>88800.89999999999</v>
@@ -659,10 +633,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>1996</t>
-        </is>
+      <c r="A18" s="2" t="n">
+        <v>35065</v>
       </c>
       <c r="B18" t="n">
         <v>91864.17999999999</v>
@@ -672,10 +644,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
+      <c r="A19" s="2" t="n">
+        <v>35431</v>
       </c>
       <c r="B19" t="n">
         <v>94938.08</v>
@@ -685,10 +655,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>1998</t>
-        </is>
+      <c r="A20" s="2" t="n">
+        <v>35796</v>
       </c>
       <c r="B20" t="n">
         <v>99800.86</v>
@@ -698,10 +666,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
+      <c r="A21" s="2" t="n">
+        <v>36161</v>
       </c>
       <c r="B21" t="n">
         <v>104707.3</v>
@@ -711,10 +677,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
+      <c r="A22" s="2" t="n">
+        <v>36526</v>
       </c>
       <c r="B22" t="n">
         <v>111404.98</v>
@@ -724,10 +688,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
+      <c r="A23" s="2" t="n">
+        <v>36892</v>
       </c>
       <c r="B23" t="n">
         <v>119736.96</v>
@@ -737,10 +699,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
+      <c r="A24" s="2" t="n">
+        <v>37257</v>
       </c>
       <c r="B24" t="n">
         <v>127319.64</v>
@@ -750,10 +710,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
+      <c r="A25" s="2" t="n">
+        <v>37622</v>
       </c>
       <c r="B25" t="n">
         <v>135258.68</v>
@@ -763,10 +721,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
+      <c r="A26" s="2" t="n">
+        <v>37987</v>
       </c>
       <c r="B26" t="n">
         <v>147935.42</v>
@@ -776,10 +732,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
+      <c r="A27" s="2" t="n">
+        <v>38353</v>
       </c>
       <c r="B27" t="n">
         <v>164720.92</v>
@@ -789,10 +743,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
+      <c r="A28" s="2" t="n">
+        <v>38718</v>
       </c>
       <c r="B28" t="n">
         <v>176525.64</v>
@@ -802,10 +754,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
+      <c r="A29" s="2" t="n">
+        <v>39083</v>
       </c>
       <c r="B29" t="n">
         <v>178483.26</v>
@@ -815,10 +765,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="A30" s="2" t="n">
+        <v>39448</v>
       </c>
       <c r="B30" t="n">
         <v>169314.66</v>
@@ -828,10 +776,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="A31" s="2" t="n">
+        <v>39814</v>
       </c>
       <c r="B31" t="n">
         <v>159919.5</v>
@@ -841,10 +787,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="A32" s="2" t="n">
+        <v>40179</v>
       </c>
       <c r="B32" t="n">
         <v>153394.1</v>
@@ -854,10 +798,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="A33" s="2" t="n">
+        <v>40544</v>
       </c>
       <c r="B33" t="n">
         <v>147470.5</v>
@@ -867,10 +809,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="A34" s="2" t="n">
+        <v>40909</v>
       </c>
       <c r="B34" t="n">
         <v>147078.74</v>
@@ -880,10 +820,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="A35" s="2" t="n">
+        <v>41275</v>
       </c>
       <c r="B35" t="n">
         <v>152596.42</v>
@@ -893,10 +831,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="A36" s="2" t="n">
+        <v>41640</v>
       </c>
       <c r="B36" t="n">
         <v>160210.96</v>
@@ -906,10 +842,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A37" s="2" t="n">
+        <v>42005</v>
       </c>
       <c r="B37" t="n">
         <v>168435.56</v>
@@ -919,10 +853,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A38" s="2" t="n">
+        <v>42370</v>
       </c>
       <c r="B38" t="n">
         <v>177246.62</v>
@@ -932,10 +864,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A39" s="2" t="n">
+        <v>42736</v>
       </c>
       <c r="B39" t="n">
         <v>186856.54</v>
@@ -945,10 +875,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A40" s="2" t="n">
+        <v>43101</v>
       </c>
       <c r="B40" t="n">
         <v>197203.96</v>
@@ -958,10 +886,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A41" s="2" t="n">
+        <v>43466</v>
       </c>
       <c r="B41" t="n">
         <v>206337.16</v>
@@ -971,10 +897,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A42" s="2" t="n">
+        <v>43831</v>
       </c>
       <c r="B42" t="n">
         <v>216981.94</v>
@@ -984,10 +908,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A43" s="2" t="n">
+        <v>44197</v>
       </c>
       <c r="B43" t="n">
         <v>246804.08</v>
@@ -997,10 +919,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="A44" s="2" t="n">
+        <v>44562</v>
       </c>
       <c r="B44" t="n">
         <v>288452.18</v>
@@ -1010,10 +930,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
+      <c r="A45" s="2" t="n">
+        <v>44927</v>
       </c>
       <c r="B45" t="n">
         <v>303376.43</v>

--- a/XLSX/housing_year.xlsx
+++ b/XLSX/housing_year.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -457,8 +451,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>29221</v>
+      <c r="A2" s="1" t="n">
+        <v>1980</v>
       </c>
       <c r="B2" t="n">
         <v>48448.44</v>
@@ -468,8 +462,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>29587</v>
+      <c r="A3" s="1" t="n">
+        <v>1981</v>
       </c>
       <c r="B3" t="n">
         <v>50607.84</v>
@@ -479,8 +473,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>29952</v>
+      <c r="A4" s="1" t="n">
+        <v>1982</v>
       </c>
       <c r="B4" t="n">
         <v>51173.06</v>
@@ -490,8 +484,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>30317</v>
+      <c r="A5" s="1" t="n">
+        <v>1983</v>
       </c>
       <c r="B5" t="n">
         <v>54867.64</v>
@@ -501,8 +495,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>30682</v>
+      <c r="A6" s="1" t="n">
+        <v>1984</v>
       </c>
       <c r="B6" t="n">
         <v>57323.22</v>
@@ -512,8 +506,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>31048</v>
+      <c r="A7" s="1" t="n">
+        <v>1985</v>
       </c>
       <c r="B7" t="n">
         <v>60251.98</v>
@@ -523,8 +517,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>31413</v>
+      <c r="A8" s="1" t="n">
+        <v>1986</v>
       </c>
       <c r="B8" t="n">
         <v>64365.46</v>
@@ -534,8 +528,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>31778</v>
+      <c r="A9" s="1" t="n">
+        <v>1987</v>
       </c>
       <c r="B9" t="n">
         <v>68533.22</v>
@@ -545,8 +539,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>32143</v>
+      <c r="A10" s="1" t="n">
+        <v>1988</v>
       </c>
       <c r="B10" t="n">
         <v>72208.92</v>
@@ -556,8 +550,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>32509</v>
+      <c r="A11" s="1" t="n">
+        <v>1989</v>
       </c>
       <c r="B11" t="n">
         <v>76019.14</v>
@@ -567,8 +561,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>32874</v>
+      <c r="A12" s="1" t="n">
+        <v>1990</v>
       </c>
       <c r="B12" t="n">
         <v>78405.10000000001</v>
@@ -578,8 +572,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>33239</v>
+      <c r="A13" s="1" t="n">
+        <v>1991</v>
       </c>
       <c r="B13" t="n">
         <v>79898.98</v>
@@ -589,8 +583,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>33604</v>
+      <c r="A14" s="1" t="n">
+        <v>1992</v>
       </c>
       <c r="B14" t="n">
         <v>82125.64</v>
@@ -600,8 +594,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>33970</v>
+      <c r="A15" s="1" t="n">
+        <v>1993</v>
       </c>
       <c r="B15" t="n">
         <v>84041.96000000001</v>
@@ -611,8 +605,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>34335</v>
+      <c r="A16" s="1" t="n">
+        <v>1994</v>
       </c>
       <c r="B16" t="n">
         <v>86171.86</v>
@@ -622,8 +616,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>34700</v>
+      <c r="A17" s="1" t="n">
+        <v>1995</v>
       </c>
       <c r="B17" t="n">
         <v>88800.89999999999</v>
@@ -633,8 +627,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>35065</v>
+      <c r="A18" s="1" t="n">
+        <v>1996</v>
       </c>
       <c r="B18" t="n">
         <v>91864.17999999999</v>
@@ -644,8 +638,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>35431</v>
+      <c r="A19" s="1" t="n">
+        <v>1997</v>
       </c>
       <c r="B19" t="n">
         <v>94938.08</v>
@@ -655,8 +649,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>35796</v>
+      <c r="A20" s="1" t="n">
+        <v>1998</v>
       </c>
       <c r="B20" t="n">
         <v>99800.86</v>
@@ -666,8 +660,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>36161</v>
+      <c r="A21" s="1" t="n">
+        <v>1999</v>
       </c>
       <c r="B21" t="n">
         <v>104707.3</v>
@@ -677,8 +671,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>36526</v>
+      <c r="A22" s="1" t="n">
+        <v>2000</v>
       </c>
       <c r="B22" t="n">
         <v>111404.98</v>
@@ -688,8 +682,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>36892</v>
+      <c r="A23" s="1" t="n">
+        <v>2001</v>
       </c>
       <c r="B23" t="n">
         <v>119736.96</v>
@@ -699,8 +693,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>37257</v>
+      <c r="A24" s="1" t="n">
+        <v>2002</v>
       </c>
       <c r="B24" t="n">
         <v>127319.64</v>
@@ -710,8 +704,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>37622</v>
+      <c r="A25" s="1" t="n">
+        <v>2003</v>
       </c>
       <c r="B25" t="n">
         <v>135258.68</v>
@@ -721,8 +715,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>37987</v>
+      <c r="A26" s="1" t="n">
+        <v>2004</v>
       </c>
       <c r="B26" t="n">
         <v>147935.42</v>
@@ -732,8 +726,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>38353</v>
+      <c r="A27" s="1" t="n">
+        <v>2005</v>
       </c>
       <c r="B27" t="n">
         <v>164720.92</v>
@@ -743,8 +737,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>38718</v>
+      <c r="A28" s="1" t="n">
+        <v>2006</v>
       </c>
       <c r="B28" t="n">
         <v>176525.64</v>
@@ -754,8 +748,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>39083</v>
+      <c r="A29" s="1" t="n">
+        <v>2007</v>
       </c>
       <c r="B29" t="n">
         <v>178483.26</v>
@@ -765,8 +759,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>39448</v>
+      <c r="A30" s="1" t="n">
+        <v>2008</v>
       </c>
       <c r="B30" t="n">
         <v>169314.66</v>
@@ -776,8 +770,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>39814</v>
+      <c r="A31" s="1" t="n">
+        <v>2009</v>
       </c>
       <c r="B31" t="n">
         <v>159919.5</v>
@@ -787,8 +781,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>40179</v>
+      <c r="A32" s="1" t="n">
+        <v>2010</v>
       </c>
       <c r="B32" t="n">
         <v>153394.1</v>
@@ -798,8 +792,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>40544</v>
+      <c r="A33" s="1" t="n">
+        <v>2011</v>
       </c>
       <c r="B33" t="n">
         <v>147470.5</v>
@@ -809,8 +803,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>40909</v>
+      <c r="A34" s="1" t="n">
+        <v>2012</v>
       </c>
       <c r="B34" t="n">
         <v>147078.74</v>
@@ -820,8 +814,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>41275</v>
+      <c r="A35" s="1" t="n">
+        <v>2013</v>
       </c>
       <c r="B35" t="n">
         <v>152596.42</v>
@@ -831,8 +825,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>41640</v>
+      <c r="A36" s="1" t="n">
+        <v>2014</v>
       </c>
       <c r="B36" t="n">
         <v>160210.96</v>
@@ -842,8 +836,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>42005</v>
+      <c r="A37" s="1" t="n">
+        <v>2015</v>
       </c>
       <c r="B37" t="n">
         <v>168435.56</v>
@@ -853,8 +847,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>42370</v>
+      <c r="A38" s="1" t="n">
+        <v>2016</v>
       </c>
       <c r="B38" t="n">
         <v>177246.62</v>
@@ -864,8 +858,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>42736</v>
+      <c r="A39" s="1" t="n">
+        <v>2017</v>
       </c>
       <c r="B39" t="n">
         <v>186856.54</v>
@@ -875,8 +869,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>43101</v>
+      <c r="A40" s="1" t="n">
+        <v>2018</v>
       </c>
       <c r="B40" t="n">
         <v>197203.96</v>
@@ -886,8 +880,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>43466</v>
+      <c r="A41" s="1" t="n">
+        <v>2019</v>
       </c>
       <c r="B41" t="n">
         <v>206337.16</v>
@@ -897,8 +891,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>43831</v>
+      <c r="A42" s="1" t="n">
+        <v>2020</v>
       </c>
       <c r="B42" t="n">
         <v>216981.94</v>
@@ -908,8 +902,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>44197</v>
+      <c r="A43" s="1" t="n">
+        <v>2021</v>
       </c>
       <c r="B43" t="n">
         <v>246804.08</v>
@@ -919,8 +913,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>44562</v>
+      <c r="A44" s="1" t="n">
+        <v>2022</v>
       </c>
       <c r="B44" t="n">
         <v>288452.18</v>
@@ -930,8 +924,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>44927</v>
+      <c r="A45" s="1" t="n">
+        <v>2023</v>
       </c>
       <c r="B45" t="n">
         <v>303376.43</v>
